--- a/data/trans_orig/P2B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4FF2D70-189D-49A5-97F9-BF17EBA4DC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9EE2DF1-D5F8-4C92-A611-646139C02AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC241CE3-0169-4799-883A-22C76CDC98FC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C8366ADF-863F-49BC-867B-861A09428E18}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="630">
   <si>
     <t>Hogares con personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>23,96%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
   </si>
   <si>
     <t>30,05%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>76,04%</t>
   </si>
   <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
   </si>
   <si>
     <t>69,95%</t>
   </si>
   <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1786 +140,1795 @@
     <t>19,05%</t>
   </si>
   <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2015 (Tasa respuesta: 78,58%)</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>19,15%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2015 (Tasa respuesta: 78,58%)</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>27,98%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>72,02%</t>
   </si>
   <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
   </si>
   <si>
     <t>75,57%</t>
   </si>
   <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
   </si>
   <si>
     <t>74,15%</t>
   </si>
   <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
   </si>
   <si>
     <t>23,3%</t>
   </si>
   <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
   </si>
   <si>
     <t>20,66%</t>
   </si>
   <si>
-    <t>15,19%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
   </si>
   <si>
     <t>76,7%</t>
   </si>
   <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>79,34%</t>
   </si>
   <si>
-    <t>84,81%</t>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>28,26%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
+    <t>33,55%</t>
   </si>
   <si>
     <t>34,09%</t>
   </si>
   <si>
-    <t>39,02%</t>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
   </si>
   <si>
     <t>31,26%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>66,45%</t>
   </si>
   <si>
     <t>65,91%</t>
   </si>
   <si>
-    <t>60,98%</t>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
   </si>
   <si>
     <t>68,74%</t>
   </si>
   <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>28,97%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
+    <t>12,51%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>71,03%</t>
   </si>
   <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
+    <t>87,49%</t>
   </si>
   <si>
     <t>77,99%</t>
   </si>
   <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
   </si>
   <si>
     <t>39,83%</t>
   </si>
   <si>
-    <t>44,68%</t>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
   </si>
   <si>
     <t>47,69%</t>
   </si>
   <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>44,25%</t>
   </si>
   <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
   </si>
   <si>
     <t>60,17%</t>
   </si>
   <si>
-    <t>55,32%</t>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>21,96%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
   <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>78,04%</t>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>72,51%</t>
   </si>
   <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FD502E-E514-4BBE-A4E8-134650F4B281}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA843D7-978B-48A4-8F92-7F2D7455DA16}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3260,13 +3269,13 @@
         <v>80204</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3290,13 @@
         <v>181843</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>175</v>
@@ -3296,13 +3305,13 @@
         <v>178672</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>354</v>
@@ -3311,13 +3320,13 @@
         <v>360515</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,7 +3382,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3385,13 +3394,13 @@
         <v>88618</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>138</v>
@@ -3400,28 +3409,28 @@
         <v>140924</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
       </c>
       <c r="N22" s="7">
-        <v>229542</v>
+        <v>229541</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3445,13 @@
         <v>352427</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>384</v>
@@ -3451,13 +3460,13 @@
         <v>397648</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>735</v>
@@ -3466,13 +3475,13 @@
         <v>750076</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3523,7 @@
         <v>957</v>
       </c>
       <c r="N24" s="7">
-        <v>979618</v>
+        <v>979617</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3528,7 +3537,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3540,13 +3549,13 @@
         <v>175127</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>164</v>
@@ -3555,13 +3564,13 @@
         <v>174299</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>332</v>
@@ -3570,13 +3579,13 @@
         <v>349426</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3600,13 @@
         <v>409322</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>470</v>
@@ -3606,13 +3615,13 @@
         <v>495282</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>881</v>
@@ -3621,13 +3630,13 @@
         <v>904604</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776F112A-5AE4-43B5-965A-5DDD70F8A973}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D74B4F-04D6-4AD0-A062-2AFB438C9FD9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4186,7 +4195,7 @@
         <v>196</v>
       </c>
       <c r="I8" s="7">
-        <v>215979</v>
+        <v>215978</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>193</v>
@@ -4237,7 +4246,7 @@
         <v>421</v>
       </c>
       <c r="I9" s="7">
-        <v>461217</v>
+        <v>461216</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4466,10 +4475,10 @@
         <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4493,13 @@
         <v>228763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>223</v>
@@ -4499,13 +4508,13 @@
         <v>241515</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>435</v>
@@ -4514,13 +4523,13 @@
         <v>470278</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4597,13 @@
         <v>93679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -4603,13 +4612,13 @@
         <v>111864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>195</v>
@@ -4618,13 +4627,13 @@
         <v>205543</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4648,13 @@
         <v>81876</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -4654,13 +4663,13 @@
         <v>91203</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>162</v>
@@ -4669,13 +4678,13 @@
         <v>173079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4752,13 @@
         <v>120894</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -4758,13 +4767,13 @@
         <v>121484</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>232</v>
@@ -4773,13 +4782,13 @@
         <v>242378</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4803,13 @@
         <v>109441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
@@ -4809,13 +4818,13 @@
         <v>134001</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>234</v>
@@ -4824,13 +4833,13 @@
         <v>243442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,7 +4895,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4898,13 +4907,13 @@
         <v>251139</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>269</v>
@@ -4913,13 +4922,13 @@
         <v>288340</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>501</v>
@@ -4928,13 +4937,13 @@
         <v>539479</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4958,13 @@
         <v>272686</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>284</v>
@@ -4964,13 +4973,13 @@
         <v>315317</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>541</v>
@@ -4979,13 +4988,13 @@
         <v>588003</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,7 +5050,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5053,13 +5062,13 @@
         <v>317290</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>364</v>
@@ -5068,13 +5077,13 @@
         <v>392282</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>661</v>
@@ -5083,13 +5092,13 @@
         <v>709572</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5113,13 @@
         <v>288406</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>282</v>
@@ -5119,13 +5128,13 @@
         <v>308896</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>542</v>
@@ -5134,13 +5143,13 @@
         <v>597302</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,28 +5217,28 @@
         <v>1423649</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>1583</v>
       </c>
       <c r="I28" s="7">
-        <v>1702448</v>
+        <v>1702449</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>2918</v>
@@ -5238,13 +5247,13 @@
         <v>3126097</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5268,13 @@
         <v>1324573</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>1330</v>
@@ -5274,13 +5283,13 @@
         <v>1441133</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>215</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>2563</v>
@@ -5289,13 +5298,13 @@
         <v>2765706</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,7 +5331,7 @@
         <v>2913</v>
       </c>
       <c r="I30" s="7">
-        <v>3143581</v>
+        <v>3143582</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5375,7 +5384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88FC428-146F-451B-AF5E-FBD64E7751F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE491EFE-4346-4F0B-9A75-60C4F87DB2F2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5392,7 +5401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5499,13 +5508,13 @@
         <v>104795</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>122</v>
@@ -5514,13 +5523,13 @@
         <v>126928</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>217</v>
@@ -5529,13 +5538,13 @@
         <v>231723</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5559,13 @@
         <v>122532</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
@@ -5565,13 +5574,13 @@
         <v>123479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>230</v>
@@ -5580,13 +5589,13 @@
         <v>246012</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5663,13 @@
         <v>75174</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -5669,13 +5678,13 @@
         <v>105184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>172</v>
@@ -5684,13 +5693,13 @@
         <v>180358</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5714,13 @@
         <v>308021</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -5720,13 +5729,13 @@
         <v>343143</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>606</v>
@@ -5735,13 +5744,13 @@
         <v>651164</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5818,13 @@
         <v>59083</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>81</v>
@@ -5824,13 +5833,13 @@
         <v>81362</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -5839,13 +5848,13 @@
         <v>140445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5869,13 @@
         <v>176874</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>183</v>
@@ -5875,13 +5884,13 @@
         <v>187493</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>369</v>
@@ -5890,13 +5899,13 @@
         <v>364367</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5973,13 @@
         <v>110237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>382</v>
       </c>
       <c r="H13" s="7">
         <v>150</v>
@@ -5979,13 +5988,13 @@
         <v>160419</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>254</v>
@@ -5994,13 +6003,13 @@
         <v>270656</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6024,13 @@
         <v>161610</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>233</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>164</v>
@@ -6030,13 +6039,13 @@
         <v>180238</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>323</v>
@@ -6045,13 +6054,13 @@
         <v>341848</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6128,13 @@
         <v>102860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>122</v>
@@ -6134,13 +6143,13 @@
         <v>120085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>225</v>
@@ -6149,13 +6158,13 @@
         <v>222945</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6179,13 @@
         <v>69789</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H17" s="7">
         <v>67</v>
@@ -6185,13 +6194,13 @@
         <v>66140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>138</v>
@@ -6200,13 +6209,13 @@
         <v>135929</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6283,13 @@
         <v>81940</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H19" s="7">
         <v>87</v>
@@ -6289,13 +6298,13 @@
         <v>93762</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>169</v>
@@ -6304,13 +6313,13 @@
         <v>175702</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6334,13 @@
         <v>111913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>24</v>
       </c>
       <c r="H20" s="7">
         <v>113</v>
@@ -6340,13 +6349,13 @@
         <v>116961</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>226</v>
@@ -6355,13 +6364,13 @@
         <v>228874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,7 +6426,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6429,13 +6438,13 @@
         <v>158514</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -6444,13 +6453,13 @@
         <v>246564</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>372</v>
@@ -6459,13 +6468,13 @@
         <v>405078</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6489,13 @@
         <v>279552</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>284</v>
@@ -6495,13 +6504,13 @@
         <v>307506</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>531</v>
@@ -6510,13 +6519,13 @@
         <v>587058</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,7 +6581,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6584,13 +6593,13 @@
         <v>347516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>415</v>
@@ -6599,13 +6608,13 @@
         <v>452514</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>105</v>
       </c>
       <c r="M25" s="7">
         <v>748</v>
@@ -6614,13 +6623,13 @@
         <v>800031</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6644,13 @@
         <v>228583</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>213</v>
@@ -6650,13 +6659,13 @@
         <v>241344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>97</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>437</v>
@@ -6665,13 +6674,13 @@
         <v>469927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6748,13 @@
         <v>1040119</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H28" s="7">
         <v>1306</v>
@@ -6754,13 +6763,13 @@
         <v>1386818</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>2302</v>
@@ -6769,10 +6778,10 @@
         <v>2426937</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>464</v>
@@ -6826,7 +6835,7 @@
         <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,7 +6915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889C0C56-EE99-448A-875E-DB988B051781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB20158-A6A2-4AF0-9441-734D7F6DDAB1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6923,7 +6932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7030,13 +7039,13 @@
         <v>22308</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -7045,13 +7054,13 @@
         <v>30007</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>479</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
         <v>92</v>
@@ -7060,13 +7069,13 @@
         <v>52315</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7090,13 @@
         <v>187038</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
@@ -7096,13 +7105,13 @@
         <v>205767</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>122</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M5" s="7">
         <v>638</v>
@@ -7111,13 +7120,13 @@
         <v>392805</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7194,13 @@
         <v>72759</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H7" s="7">
         <v>164</v>
@@ -7200,13 +7209,13 @@
         <v>122518</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M7" s="7">
         <v>227</v>
@@ -7215,13 +7224,13 @@
         <v>195276</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7245,13 @@
         <v>271106</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -7251,13 +7260,13 @@
         <v>324444</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M8" s="7">
         <v>647</v>
@@ -7266,13 +7275,13 @@
         <v>595551</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7349,13 @@
         <v>45050</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -7355,13 +7364,13 @@
         <v>66274</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -7370,13 +7379,13 @@
         <v>111324</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7400,13 @@
         <v>187878</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H11" s="7">
         <v>335</v>
@@ -7406,13 +7415,13 @@
         <v>219118</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M11" s="7">
         <v>555</v>
@@ -7421,13 +7430,13 @@
         <v>406996</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7504,13 @@
         <v>62260</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>526</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -7510,13 +7519,13 @@
         <v>82332</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
@@ -7525,13 +7534,13 @@
         <v>144592</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7555,13 @@
         <v>160236</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>535</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -7561,13 +7570,13 @@
         <v>254624</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="M14" s="7">
         <v>537</v>
@@ -7576,13 +7585,13 @@
         <v>414860</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,13 +7659,13 @@
         <v>24704</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -7665,13 +7674,13 @@
         <v>34618</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -7680,13 +7689,13 @@
         <v>59323</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7734,10 +7743,10 @@
         <v>559</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>560</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,10 +7814,10 @@
         <v>59473</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>562</v>
+        <v>148</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>563</v>
@@ -7823,10 +7832,10 @@
         <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>231</v>
@@ -7835,13 +7844,13 @@
         <v>135437</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7865,13 @@
         <v>151004</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>571</v>
+        <v>157</v>
       </c>
       <c r="H20" s="7">
         <v>246</v>
@@ -7877,7 +7886,7 @@
         <v>573</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>26</v>
+        <v>574</v>
       </c>
       <c r="M20" s="7">
         <v>457</v>
@@ -7886,13 +7895,13 @@
         <v>297850</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,7 +7957,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7960,13 +7969,13 @@
         <v>49705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H22" s="7">
         <v>111</v>
@@ -7975,13 +7984,13 @@
         <v>178650</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>337</v>
       </c>
       <c r="M22" s="7">
         <v>164</v>
@@ -8029,10 +8038,10 @@
         <v>589</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="M23" s="7">
         <v>1007</v>
@@ -8041,13 +8050,13 @@
         <v>809371</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,7 +8112,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8115,10 +8124,10 @@
         <v>201029</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>596</v>
@@ -8172,7 +8181,7 @@
         <v>604</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>415</v>
+        <v>605</v>
       </c>
       <c r="H26" s="7">
         <v>462</v>
@@ -8181,13 +8190,13 @@
         <v>338336</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M26" s="7">
         <v>792</v>
@@ -8196,13 +8205,13 @@
         <v>642052</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8270,13 +8279,13 @@
         <v>537288</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>534</v>
+        <v>614</v>
       </c>
       <c r="H28" s="7">
         <v>1166</v>
@@ -8285,13 +8294,13 @@
         <v>898854</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M28" s="7">
         <v>1745</v>
@@ -8300,13 +8309,13 @@
         <v>1436142</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,13 +8330,13 @@
         <v>1713576</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>542</v>
+        <v>622</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="H29" s="7">
         <v>3145</v>
@@ -8336,13 +8345,13 @@
         <v>2073673</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="M29" s="7">
         <v>5028</v>
@@ -8351,13 +8360,13 @@
         <v>3787249</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P2B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9EE2DF1-D5F8-4C92-A611-646139C02AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26422D65-6F00-4829-8056-4F37246F29A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C8366ADF-863F-49BC-867B-861A09428E18}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC0BE8FD-FEC5-4D5B-814A-A6F2096DBEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
   <si>
     <t>Hogares con personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>23,96%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>30,05%</t>
   </si>
   <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>76,04%</t>
   </si>
   <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
   </si>
   <si>
     <t>69,95%</t>
   </si>
   <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,112 +140,112 @@
     <t>19,05%</t>
   </si>
   <si>
-    <t>15,05%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>23,63%</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
   </si>
   <si>
     <t>76,37%</t>
   </si>
   <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>85,92%</t>
   </si>
   <si>
     <t>68,42%</t>
   </si>
   <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
   </si>
   <si>
     <t>74,25%</t>
   </si>
   <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,55 +254,55 @@
     <t>14,32%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>23,31%</t>
   </si>
   <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>19,23%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>76,69%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
   </si>
   <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -311,55 +311,55 @@
     <t>27,26%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
   </si>
   <si>
     <t>24,3%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>25,62%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
   </si>
   <si>
     <t>72,74%</t>
   </si>
   <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>74,38%</t>
   </si>
   <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -368,1449 +368,1452 @@
     <t>15,11%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2016 (Tasa respuesta: 78,58%)</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>22,9%</t>
   </si>
   <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
   </si>
   <si>
     <t>77,1%</t>
   </si>
   <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2015 (Tasa respuesta: 78,58%)</t>
-  </si>
-  <si>
-    <t>46,1%</t>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
     <t>87,49%</t>
   </si>
   <si>
@@ -1892,9 +1895,6 @@
     <t>27,04%</t>
   </si>
   <si>
-    <t>39,87%</t>
-  </si>
-  <si>
     <t>27,49%</t>
   </si>
   <si>
@@ -1914,9 +1914,6 @@
   </si>
   <si>
     <t>69,76%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
   </si>
   <si>
     <t>72,96%</t>
@@ -2340,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA843D7-978B-48A4-8F92-7F2D7455DA16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8F90EE-4142-4038-A545-8E753A05CF9B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3415,22 +3412,22 @@
         <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
       </c>
       <c r="N22" s="7">
-        <v>229541</v>
+        <v>229542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3442,13 @@
         <v>352427</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>384</v>
@@ -3460,13 +3457,13 @@
         <v>397648</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>735</v>
@@ -3475,13 +3472,13 @@
         <v>750076</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,7 +3520,7 @@
         <v>957</v>
       </c>
       <c r="N24" s="7">
-        <v>979617</v>
+        <v>979618</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3537,7 +3534,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3549,13 +3546,13 @@
         <v>175127</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>164</v>
@@ -3564,13 +3561,13 @@
         <v>174299</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>332</v>
@@ -3579,13 +3576,13 @@
         <v>349426</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3597,13 @@
         <v>409322</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>470</v>
@@ -3615,13 +3612,13 @@
         <v>495282</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>881</v>
@@ -3630,13 +3627,13 @@
         <v>904604</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3701,13 @@
         <v>538090</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>727</v>
@@ -3719,13 +3716,13 @@
         <v>752521</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>1251</v>
@@ -3734,13 +3731,13 @@
         <v>1290610</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3752,13 @@
         <v>1926392</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>2072</v>
@@ -3770,13 +3767,13 @@
         <v>2120933</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>3984</v>
@@ -3785,13 +3782,13 @@
         <v>4047326</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,7 +3844,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3871,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D74B4F-04D6-4AD0-A062-2AFB438C9FD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67C9C9E-D42E-4C51-9781-E86D6CB05E37}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3888,7 +3885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,39 +3990,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,39 +4035,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,39 +4080,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4129,13 @@
         <v>191147</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>225</v>
@@ -4147,13 +4144,13 @@
         <v>245238</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>405</v>
@@ -4162,13 +4159,13 @@
         <v>436384</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,28 +4180,28 @@
         <v>206821</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>196</v>
       </c>
       <c r="I8" s="7">
-        <v>215978</v>
+        <v>215979</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>386</v>
@@ -4213,13 +4210,13 @@
         <v>422800</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,7 +4243,7 @@
         <v>421</v>
       </c>
       <c r="I9" s="7">
-        <v>461216</v>
+        <v>461217</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4287,13 +4284,13 @@
         <v>128777</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>149</v>
@@ -4302,13 +4299,13 @@
         <v>162973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>272</v>
@@ -4317,13 +4314,13 @@
         <v>291750</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4335,13 @@
         <v>136580</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>127</v>
@@ -4353,13 +4350,13 @@
         <v>134221</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>263</v>
@@ -4907,13 +4904,13 @@
         <v>251139</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>269</v>
@@ -4922,13 +4919,13 @@
         <v>288340</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>501</v>
@@ -4937,13 +4934,13 @@
         <v>539479</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4955,13 @@
         <v>272686</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>284</v>
@@ -4973,13 +4970,13 @@
         <v>315317</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>541</v>
@@ -4988,13 +4985,13 @@
         <v>588003</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,7 +5047,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5062,13 +5059,13 @@
         <v>317290</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="H25" s="7">
         <v>364</v>
@@ -5077,13 +5074,13 @@
         <v>392282</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>661</v>
@@ -5092,13 +5089,13 @@
         <v>709572</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5110,13 @@
         <v>288406</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>215</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>282</v>
@@ -5128,13 +5125,13 @@
         <v>308896</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>542</v>
@@ -5143,13 +5140,13 @@
         <v>597302</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,28 +5214,28 @@
         <v>1423649</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>1583</v>
       </c>
       <c r="I28" s="7">
-        <v>1702449</v>
+        <v>1702448</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>2918</v>
@@ -5247,13 +5244,13 @@
         <v>3126097</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5265,13 @@
         <v>1324573</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>1330</v>
@@ -5283,13 +5280,13 @@
         <v>1441133</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>2563</v>
@@ -5298,13 +5295,13 @@
         <v>2765706</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,7 +5328,7 @@
         <v>2913</v>
       </c>
       <c r="I30" s="7">
-        <v>3143582</v>
+        <v>3143581</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5360,7 +5357,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5384,7 +5381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE491EFE-4346-4F0B-9A75-60C4F87DB2F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17AA1F6-8B00-4711-B201-9E819A3566F0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5401,7 +5398,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5508,13 +5505,13 @@
         <v>104795</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>122</v>
@@ -5523,13 +5520,13 @@
         <v>126928</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>217</v>
@@ -5538,13 +5535,13 @@
         <v>231723</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5556,13 @@
         <v>122532</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
@@ -5574,28 +5571,28 @@
         <v>123479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>230</v>
       </c>
       <c r="N5" s="7">
-        <v>246012</v>
+        <v>246011</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,7 +5634,7 @@
         <v>447</v>
       </c>
       <c r="N6" s="7">
-        <v>477735</v>
+        <v>477734</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5663,13 +5660,13 @@
         <v>75174</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -5678,13 +5675,13 @@
         <v>105184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>172</v>
@@ -5693,13 +5690,13 @@
         <v>180358</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5711,13 @@
         <v>308021</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -5729,13 +5726,13 @@
         <v>343143</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>606</v>
@@ -5744,13 +5741,13 @@
         <v>651164</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5815,13 @@
         <v>59083</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>81</v>
@@ -5833,13 +5830,13 @@
         <v>81362</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -5848,13 +5845,13 @@
         <v>140445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5866,13 @@
         <v>176874</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>183</v>
@@ -5884,13 +5881,13 @@
         <v>187493</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>369</v>
@@ -5899,13 +5896,13 @@
         <v>364367</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5970,13 @@
         <v>110237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>150</v>
@@ -5988,13 +5985,13 @@
         <v>160419</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>254</v>
@@ -6003,13 +6000,13 @@
         <v>270656</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6021,13 @@
         <v>161610</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>164</v>
@@ -6039,13 +6036,13 @@
         <v>180238</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>323</v>
@@ -6054,13 +6051,13 @@
         <v>341848</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6125,13 @@
         <v>102860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>122</v>
@@ -6143,13 +6140,13 @@
         <v>120085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>225</v>
@@ -6158,13 +6155,13 @@
         <v>222945</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,13 +6176,13 @@
         <v>69789</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>67</v>
@@ -6194,13 +6191,13 @@
         <v>66140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>138</v>
@@ -6209,13 +6206,13 @@
         <v>135929</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6280,13 @@
         <v>81940</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H19" s="7">
         <v>87</v>
@@ -6298,13 +6295,13 @@
         <v>93762</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>169</v>
@@ -6313,13 +6310,13 @@
         <v>175702</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,13 +6331,13 @@
         <v>111913</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>24</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>113</v>
@@ -6349,13 +6346,13 @@
         <v>116961</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>226</v>
@@ -6364,13 +6361,13 @@
         <v>228874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6435,13 @@
         <v>158514</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -6453,13 +6450,13 @@
         <v>246564</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>372</v>
@@ -6468,13 +6465,13 @@
         <v>405078</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6486,13 @@
         <v>279552</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
         <v>284</v>
@@ -6504,13 +6501,13 @@
         <v>307506</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>531</v>
@@ -6519,13 +6516,13 @@
         <v>587058</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,7 +6578,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6593,13 +6590,13 @@
         <v>347516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>415</v>
@@ -6608,13 +6605,13 @@
         <v>452514</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>105</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>748</v>
@@ -6623,13 +6620,13 @@
         <v>800031</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6641,13 @@
         <v>228583</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>213</v>
@@ -6659,13 +6656,13 @@
         <v>241344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>437</v>
@@ -6674,13 +6671,13 @@
         <v>469927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6745,13 @@
         <v>1040119</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>329</v>
       </c>
       <c r="H28" s="7">
         <v>1306</v>
@@ -6763,13 +6760,13 @@
         <v>1386818</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>461</v>
+        <v>260</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="M28" s="7">
         <v>2302</v>
@@ -6781,10 +6778,10 @@
         <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,10 +6799,10 @@
         <v>465</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H29" s="7">
         <v>1455</v>
@@ -6814,13 +6811,13 @@
         <v>1566305</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>270</v>
       </c>
       <c r="M29" s="7">
         <v>2860</v>
@@ -6829,13 +6826,13 @@
         <v>3025179</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>400</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,7 +6888,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6915,7 +6912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB20158-A6A2-4AF0-9441-734D7F6DDAB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE12056-E2AA-41B1-AC71-D93F2A84A7E2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6932,7 +6929,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7039,13 +7036,13 @@
         <v>22308</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -7054,13 +7051,13 @@
         <v>30007</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
+        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>92</v>
@@ -7069,13 +7066,13 @@
         <v>52315</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,13 +7087,13 @@
         <v>187038</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
@@ -7105,13 +7102,13 @@
         <v>205767</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M5" s="7">
         <v>638</v>
@@ -7120,13 +7117,13 @@
         <v>392805</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7191,13 @@
         <v>72759</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="H7" s="7">
         <v>164</v>
@@ -7209,13 +7206,13 @@
         <v>122518</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="M7" s="7">
         <v>227</v>
@@ -7224,13 +7221,13 @@
         <v>195276</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,13 +7242,13 @@
         <v>271106</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -7260,13 +7257,13 @@
         <v>324444</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="M8" s="7">
         <v>647</v>
@@ -7275,13 +7272,13 @@
         <v>595551</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7346,13 @@
         <v>45050</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -7364,13 +7361,13 @@
         <v>66274</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -7379,13 +7376,13 @@
         <v>111324</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7397,13 @@
         <v>187878</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="H11" s="7">
         <v>335</v>
@@ -7415,13 +7412,13 @@
         <v>219118</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="M11" s="7">
         <v>555</v>
@@ -7430,13 +7427,13 @@
         <v>406996</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,13 +7501,13 @@
         <v>62260</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -7519,13 +7516,13 @@
         <v>82332</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
@@ -7534,13 +7531,13 @@
         <v>144592</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,13 +7552,13 @@
         <v>160236</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -7570,13 +7567,13 @@
         <v>254624</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="M14" s="7">
         <v>537</v>
@@ -7585,13 +7582,13 @@
         <v>414860</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7656,13 @@
         <v>24704</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -7674,13 +7671,13 @@
         <v>34618</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -7689,13 +7686,13 @@
         <v>59323</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7710,13 +7707,13 @@
         <v>81303</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="H17" s="7">
         <v>269</v>
@@ -7725,13 +7722,13 @@
         <v>146462</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="M17" s="7">
         <v>395</v>
@@ -7740,13 +7737,13 @@
         <v>227765</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,13 +7811,13 @@
         <v>59473</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>141</v>
@@ -7829,13 +7826,13 @@
         <v>75965</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>231</v>
@@ -7844,13 +7841,13 @@
         <v>135437</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,13 +7862,13 @@
         <v>151004</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H20" s="7">
         <v>246</v>
@@ -7880,13 +7877,13 @@
         <v>146845</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="M20" s="7">
         <v>457</v>
@@ -7895,13 +7892,13 @@
         <v>297850</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,13 +7966,13 @@
         <v>49705</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="H22" s="7">
         <v>111</v>
@@ -7984,13 +7981,13 @@
         <v>178650</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M22" s="7">
         <v>164</v>
@@ -8038,10 +8035,10 @@
         <v>589</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>327</v>
+        <v>590</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M23" s="7">
         <v>1007</v>
@@ -8050,13 +8047,13 @@
         <v>809371</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8112,7 +8109,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8124,13 +8121,13 @@
         <v>201029</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H25" s="7">
         <v>378</v>
@@ -8139,13 +8136,13 @@
         <v>308490</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M25" s="7">
         <v>569</v>
@@ -8154,13 +8151,13 @@
         <v>509519</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,13 +8172,13 @@
         <v>303716</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H26" s="7">
         <v>462</v>
@@ -8190,13 +8187,13 @@
         <v>338336</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>792</v>
@@ -8205,13 +8202,13 @@
         <v>642052</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,13 +8276,13 @@
         <v>537288</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H28" s="7">
         <v>1166</v>
@@ -8294,13 +8291,13 @@
         <v>898854</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>617</v>
+        <v>381</v>
       </c>
       <c r="M28" s="7">
         <v>1745</v>
@@ -8348,10 +8345,10 @@
         <v>624</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>626</v>
       </c>
       <c r="M29" s="7">
         <v>5028</v>
@@ -8360,13 +8357,13 @@
         <v>3787249</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8422,7 +8419,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26422D65-6F00-4829-8056-4F37246F29A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC2602C-6D3C-4F66-ACE4-5A8F73BC0DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC0BE8FD-FEC5-4D5B-814A-A6F2096DBEB8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF84027C-B71D-4E2F-B357-F53A3C250F91}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>23,96%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
   </si>
   <si>
     <t>30,05%</t>
   </si>
   <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>76,04%</t>
   </si>
   <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
   </si>
   <si>
     <t>69,95%</t>
   </si>
   <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1792 +140,1786 @@
     <t>19,05%</t>
   </si>
   <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2016 (Tasa respuesta: 78,58%)</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>28,26%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2016 (Tasa respuesta: 78,58%)</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
   </si>
   <si>
     <t>65,91%</t>
   </si>
   <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
+    <t>60,98%</t>
   </si>
   <si>
     <t>68,74%</t>
   </si>
   <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>28,97%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
   </si>
   <si>
     <t>71,03%</t>
   </si>
   <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
   </si>
   <si>
     <t>77,99%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>39,83%</t>
   </si>
   <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
+    <t>44,68%</t>
   </si>
   <si>
     <t>47,69%</t>
   </si>
   <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
   </si>
   <si>
     <t>44,25%</t>
   </si>
   <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>60,17%</t>
   </si>
   <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
+    <t>55,32%</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>21,96%</t>
   </si>
   <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>27,04%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
+    <t>78,04%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>72,96%</t>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>72,51%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8F90EE-4142-4038-A545-8E753A05CF9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194ADC5A-CA20-4A43-A7BB-64163A7BBB36}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3266,13 +3260,13 @@
         <v>80204</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3281,13 @@
         <v>181843</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>175</v>
@@ -3302,13 +3296,13 @@
         <v>178672</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>354</v>
@@ -3317,13 +3311,13 @@
         <v>360515</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,7 +3373,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3391,13 +3385,13 @@
         <v>88618</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>138</v>
@@ -3406,13 +3400,13 @@
         <v>140924</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -3421,13 +3415,13 @@
         <v>229542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3436,13 @@
         <v>352427</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="H23" s="7">
         <v>384</v>
@@ -3457,13 +3451,13 @@
         <v>397648</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>735</v>
@@ -3472,13 +3466,13 @@
         <v>750076</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,7 +3528,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3546,13 +3540,13 @@
         <v>175127</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>164</v>
@@ -3561,13 +3555,13 @@
         <v>174299</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>332</v>
@@ -3576,13 +3570,13 @@
         <v>349426</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3591,13 @@
         <v>409322</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>470</v>
@@ -3612,13 +3606,13 @@
         <v>495282</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>881</v>
@@ -3627,13 +3621,13 @@
         <v>904604</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3695,13 @@
         <v>538090</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>727</v>
@@ -3716,13 +3710,13 @@
         <v>752521</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>1251</v>
@@ -3731,13 +3725,13 @@
         <v>1290610</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3746,13 @@
         <v>1926392</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>2072</v>
@@ -3767,13 +3761,13 @@
         <v>2120933</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>3984</v>
@@ -3782,13 +3776,13 @@
         <v>4047326</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,7 +3838,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3868,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67C9C9E-D42E-4C51-9781-E86D6CB05E37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9CBDF6-C518-4340-B37A-D7452CD6BA70}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3885,7 +3879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3990,39 +3984,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,39 +4029,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,39 +4074,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4123,13 @@
         <v>191147</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>225</v>
@@ -4144,13 +4138,13 @@
         <v>245238</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>405</v>
@@ -4159,13 +4153,13 @@
         <v>436384</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4174,13 @@
         <v>206821</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>196</v>
@@ -4195,13 +4189,13 @@
         <v>215979</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>386</v>
@@ -4210,13 +4204,13 @@
         <v>422800</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4278,13 @@
         <v>128777</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>149</v>
@@ -4299,13 +4293,13 @@
         <v>162973</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>272</v>
@@ -4314,13 +4308,13 @@
         <v>291750</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4329,13 @@
         <v>136580</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>127</v>
@@ -4350,13 +4344,13 @@
         <v>134221</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>263</v>
@@ -4472,10 +4466,10 @@
         <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4484,13 @@
         <v>228763</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>223</v>
@@ -4505,13 +4499,13 @@
         <v>241515</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>435</v>
@@ -4520,13 +4514,13 @@
         <v>470278</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4588,13 @@
         <v>93679</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -4609,13 +4603,13 @@
         <v>111864</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>195</v>
@@ -4624,13 +4618,13 @@
         <v>205543</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4639,13 @@
         <v>81876</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -4660,13 +4654,13 @@
         <v>91203</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>162</v>
@@ -4675,13 +4669,13 @@
         <v>173079</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4743,13 @@
         <v>120894</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -4764,13 +4758,13 @@
         <v>121484</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>232</v>
@@ -4779,13 +4773,13 @@
         <v>242378</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4794,13 @@
         <v>109441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
@@ -4815,13 +4809,13 @@
         <v>134001</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>234</v>
@@ -4830,13 +4824,13 @@
         <v>243442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,7 +4886,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4904,13 +4898,13 @@
         <v>251139</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>269</v>
@@ -4919,13 +4913,13 @@
         <v>288340</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>501</v>
@@ -4934,13 +4928,13 @@
         <v>539479</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4949,13 @@
         <v>272686</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>284</v>
@@ -4970,13 +4964,13 @@
         <v>315317</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>541</v>
@@ -4985,13 +4979,13 @@
         <v>588003</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,7 +5041,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5059,13 +5053,13 @@
         <v>317290</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H25" s="7">
         <v>364</v>
@@ -5074,13 +5068,13 @@
         <v>392282</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>661</v>
@@ -5089,13 +5083,13 @@
         <v>709572</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,10 +5104,10 @@
         <v>288406</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>296</v>
@@ -5214,13 +5208,13 @@
         <v>1423649</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>1583</v>
@@ -5229,13 +5223,13 @@
         <v>1702448</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="M28" s="7">
         <v>2918</v>
@@ -5244,13 +5238,13 @@
         <v>3126097</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5259,13 @@
         <v>1324573</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>1330</v>
@@ -5280,13 +5274,13 @@
         <v>1441133</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>215</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>2563</v>
@@ -5295,13 +5289,13 @@
         <v>2765706</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,7 +5351,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5381,7 +5375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17AA1F6-8B00-4711-B201-9E819A3566F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7012607-39D5-460C-BA21-2D98E5ADD713}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5398,7 +5392,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5505,13 +5499,13 @@
         <v>104795</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>122</v>
@@ -5520,13 +5514,13 @@
         <v>126928</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>217</v>
@@ -5535,13 +5529,13 @@
         <v>231723</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5550,13 @@
         <v>122532</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
@@ -5571,28 +5565,28 @@
         <v>123479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>230</v>
       </c>
       <c r="N5" s="7">
-        <v>246011</v>
+        <v>246012</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,7 +5628,7 @@
         <v>447</v>
       </c>
       <c r="N6" s="7">
-        <v>477734</v>
+        <v>477735</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5660,13 +5654,13 @@
         <v>75174</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -5675,13 +5669,13 @@
         <v>105184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>172</v>
@@ -5690,13 +5684,13 @@
         <v>180358</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5705,13 @@
         <v>308021</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -5726,13 +5720,13 @@
         <v>343143</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>606</v>
@@ -5741,13 +5735,13 @@
         <v>651164</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>84</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5809,13 @@
         <v>59083</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>81</v>
@@ -5830,13 +5824,13 @@
         <v>81362</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -5845,13 +5839,13 @@
         <v>140445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5860,13 @@
         <v>176874</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>183</v>
@@ -5881,13 +5875,13 @@
         <v>187493</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>369</v>
@@ -5896,13 +5890,13 @@
         <v>364367</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5964,13 @@
         <v>110237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>150</v>
@@ -5985,13 +5979,13 @@
         <v>160419</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>254</v>
@@ -6000,13 +5994,13 @@
         <v>270656</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +6015,13 @@
         <v>161610</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>164</v>
@@ -6036,13 +6030,13 @@
         <v>180238</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>323</v>
@@ -6051,13 +6045,13 @@
         <v>341848</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6119,13 @@
         <v>102860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>122</v>
@@ -6140,13 +6134,13 @@
         <v>120085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>225</v>
@@ -6155,13 +6149,13 @@
         <v>222945</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6170,13 @@
         <v>69789</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>67</v>
@@ -6191,13 +6185,13 @@
         <v>66140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>138</v>
@@ -6206,13 +6200,13 @@
         <v>135929</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6274,13 @@
         <v>81940</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>87</v>
@@ -6295,13 +6289,13 @@
         <v>93762</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>169</v>
@@ -6310,13 +6304,13 @@
         <v>175702</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6325,13 @@
         <v>111913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>113</v>
@@ -6346,13 +6340,13 @@
         <v>116961</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>226</v>
@@ -6361,13 +6355,13 @@
         <v>228874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,7 +6417,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6435,13 +6429,13 @@
         <v>158514</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -6450,13 +6444,13 @@
         <v>246564</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M22" s="7">
         <v>372</v>
@@ -6465,13 +6459,13 @@
         <v>405078</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +6480,13 @@
         <v>279552</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H23" s="7">
         <v>284</v>
@@ -6501,13 +6495,13 @@
         <v>307506</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>531</v>
@@ -6516,13 +6510,13 @@
         <v>587058</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,7 +6572,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6590,13 +6584,13 @@
         <v>347516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>415</v>
@@ -6605,13 +6599,13 @@
         <v>452514</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>748</v>
@@ -6620,13 +6614,13 @@
         <v>800031</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6635,13 @@
         <v>228583</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>213</v>
@@ -6656,13 +6650,13 @@
         <v>241344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>437</v>
@@ -6671,13 +6665,13 @@
         <v>469927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6739,13 @@
         <v>1040119</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>329</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>1306</v>
@@ -6760,13 +6754,13 @@
         <v>1386818</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="M28" s="7">
         <v>2302</v>
@@ -6775,13 +6769,13 @@
         <v>2426937</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,10 +6793,10 @@
         <v>465</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>339</v>
+        <v>466</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H29" s="7">
         <v>1455</v>
@@ -6811,13 +6805,13 @@
         <v>1566305</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>2860</v>
@@ -6826,13 +6820,13 @@
         <v>3025179</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,7 +6882,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6912,7 +6906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE12056-E2AA-41B1-AC71-D93F2A84A7E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C72A1D6-0D1E-4BA0-8509-9B6DB3E006BE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6929,7 +6923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7036,13 +7030,13 @@
         <v>22308</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -7051,13 +7045,13 @@
         <v>30007</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>92</v>
@@ -7066,13 +7060,13 @@
         <v>52315</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,13 +7081,13 @@
         <v>187038</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
@@ -7102,13 +7096,13 @@
         <v>205767</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M5" s="7">
         <v>638</v>
@@ -7117,13 +7111,13 @@
         <v>392805</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7185,13 @@
         <v>72759</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H7" s="7">
         <v>164</v>
@@ -7206,13 +7200,13 @@
         <v>122518</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M7" s="7">
         <v>227</v>
@@ -7221,13 +7215,13 @@
         <v>195276</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,13 +7236,13 @@
         <v>271106</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -7257,13 +7251,13 @@
         <v>324444</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M8" s="7">
         <v>647</v>
@@ -7272,13 +7266,13 @@
         <v>595551</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7340,13 @@
         <v>45050</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -7361,13 +7355,13 @@
         <v>66274</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -7376,13 +7370,13 @@
         <v>111324</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,13 +7391,13 @@
         <v>187878</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H11" s="7">
         <v>335</v>
@@ -7412,13 +7406,13 @@
         <v>219118</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M11" s="7">
         <v>555</v>
@@ -7427,13 +7421,13 @@
         <v>406996</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7495,13 @@
         <v>62260</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -7516,13 +7510,13 @@
         <v>82332</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
@@ -7531,13 +7525,13 @@
         <v>144592</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7546,13 @@
         <v>160236</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -7567,13 +7561,13 @@
         <v>254624</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M14" s="7">
         <v>537</v>
@@ -7582,13 +7576,13 @@
         <v>414860</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7650,13 @@
         <v>24704</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -7671,13 +7665,13 @@
         <v>34618</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -7686,13 +7680,13 @@
         <v>59323</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,13 +7701,13 @@
         <v>81303</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H17" s="7">
         <v>269</v>
@@ -7722,13 +7716,13 @@
         <v>146462</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M17" s="7">
         <v>395</v>
@@ -7737,10 +7731,10 @@
         <v>227765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>560</v>
@@ -7811,13 +7805,13 @@
         <v>59473</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>561</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>141</v>
@@ -7826,10 +7820,10 @@
         <v>75965</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>564</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>565</v>
@@ -7862,13 +7856,13 @@
         <v>151004</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>569</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H20" s="7">
         <v>246</v>
@@ -7877,13 +7871,13 @@
         <v>146845</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>26</v>
       </c>
       <c r="M20" s="7">
         <v>457</v>
@@ -7954,7 +7948,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8109,7 +8103,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8124,10 +8118,10 @@
         <v>595</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>597</v>
       </c>
       <c r="H25" s="7">
         <v>378</v>
@@ -8136,13 +8130,13 @@
         <v>308490</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>600</v>
       </c>
       <c r="M25" s="7">
         <v>569</v>
@@ -8151,13 +8145,13 @@
         <v>509519</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,13 +8166,13 @@
         <v>303716</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>605</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>415</v>
       </c>
       <c r="H26" s="7">
         <v>462</v>
@@ -8187,13 +8181,13 @@
         <v>338336</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>792</v>
@@ -8202,13 +8196,13 @@
         <v>642052</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +8270,13 @@
         <v>537288</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>615</v>
+        <v>534</v>
       </c>
       <c r="H28" s="7">
         <v>1166</v>
@@ -8291,13 +8285,13 @@
         <v>898854</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>381</v>
+        <v>615</v>
       </c>
       <c r="M28" s="7">
         <v>1745</v>
@@ -8306,13 +8300,13 @@
         <v>1436142</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,13 +8321,13 @@
         <v>1713576</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>622</v>
+        <v>542</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H29" s="7">
         <v>3145</v>
@@ -8342,13 +8336,13 @@
         <v>2073673</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>391</v>
+        <v>622</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="M29" s="7">
         <v>5028</v>
@@ -8357,13 +8351,13 @@
         <v>3787249</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8419,7 +8413,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC2602C-6D3C-4F66-ACE4-5A8F73BC0DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45677B91-7B3F-49FE-B3CC-83EB4B519E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF84027C-B71D-4E2F-B357-F53A3C250F91}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F31193A6-4F76-4B01-B3EF-7CEC51CA74EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="640">
   <si>
     <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
   </si>
@@ -581,7 +581,58 @@
     <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
   </si>
   <si>
     <t>48,03%</t>
@@ -692,52 +743,58 @@
     <t>52,74%</t>
   </si>
   <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
   </si>
   <si>
     <t>53,36%</t>
@@ -896,9 +953,6 @@
     <t>55,37%</t>
   </si>
   <si>
-    <t>52,38%</t>
-  </si>
-  <si>
     <t>48,3%</t>
   </si>
   <si>
@@ -923,9 +977,6 @@
     <t>57,22%</t>
   </si>
   <si>
-    <t>47,62%</t>
-  </si>
-  <si>
     <t>43,24%</t>
   </si>
   <si>
@@ -1466,460 +1517,448 @@
     <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>17,18%</t>
   </si>
   <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
   </si>
   <si>
     <t>31,26%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>68,74%</t>
   </si>
   <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194ADC5A-CA20-4A43-A7BB-64163A7BBB36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16C4FD7-DB05-459E-907B-7925A466FB2D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3412,7 +3451,7 @@
         <v>222</v>
       </c>
       <c r="N22" s="7">
-        <v>229542</v>
+        <v>229541</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>130</v>
@@ -3514,7 +3553,7 @@
         <v>957</v>
       </c>
       <c r="N24" s="7">
-        <v>979618</v>
+        <v>979617</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3743,7 +3782,7 @@
         <v>1912</v>
       </c>
       <c r="D29" s="7">
-        <v>1926392</v>
+        <v>1926393</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>169</v>
@@ -3758,7 +3797,7 @@
         <v>2072</v>
       </c>
       <c r="I29" s="7">
-        <v>2120933</v>
+        <v>2120932</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>172</v>
@@ -3794,7 +3833,7 @@
         <v>2436</v>
       </c>
       <c r="D30" s="7">
-        <v>2464482</v>
+        <v>2464483</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3809,7 +3848,7 @@
         <v>2799</v>
       </c>
       <c r="I30" s="7">
-        <v>2873454</v>
+        <v>2873453</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3862,7 +3901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9CBDF6-C518-4340-B37A-D7452CD6BA70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB632191-333F-4688-9955-16889B2EA350}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3980,43 +4019,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>134</v>
+      </c>
+      <c r="D4" s="7">
+        <v>139098</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="I4" s="7">
+        <v>160381</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="N4" s="7">
+        <v>299479</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,43 +4070,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="D5" s="7">
+        <v>96154</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="I5" s="7">
+        <v>109460</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="N5" s="7">
+        <v>205614</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,43 +4121,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>226</v>
+      </c>
+      <c r="D6" s="7">
+        <v>235252</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>240</v>
+      </c>
+      <c r="I6" s="7">
+        <v>269841</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>466</v>
+      </c>
+      <c r="N6" s="7">
+        <v>505093</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4180,13 @@
         <v>191147</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>225</v>
@@ -4138,13 +4195,13 @@
         <v>245238</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>405</v>
@@ -4153,13 +4210,13 @@
         <v>436384</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4231,13 @@
         <v>206821</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>196</v>
@@ -4189,13 +4246,13 @@
         <v>215979</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>386</v>
@@ -4204,13 +4261,13 @@
         <v>422800</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4335,13 @@
         <v>128777</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>149</v>
@@ -4293,13 +4350,13 @@
         <v>162973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>272</v>
@@ -4308,13 +4365,13 @@
         <v>291750</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4386,13 @@
         <v>136580</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>127</v>
@@ -4344,13 +4401,13 @@
         <v>134221</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>263</v>
@@ -4359,13 +4416,13 @@
         <v>270801</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,49 +4484,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="D13" s="7">
-        <v>320724</v>
+        <v>181626</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>352</v>
+        <v>207</v>
       </c>
       <c r="I13" s="7">
-        <v>380267</v>
+        <v>219885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>652</v>
+        <v>373</v>
       </c>
       <c r="N13" s="7">
-        <v>700991</v>
+        <v>401512</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,49 +4535,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="D14" s="7">
-        <v>228763</v>
+        <v>132608</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="I14" s="7">
-        <v>241515</v>
+        <v>132056</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>435</v>
+        <v>248</v>
       </c>
       <c r="N14" s="7">
-        <v>470278</v>
+        <v>264664</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,10 +4586,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>512</v>
+        <v>286</v>
       </c>
       <c r="D15" s="7">
-        <v>549487</v>
+        <v>314234</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4544,10 +4601,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>575</v>
+        <v>335</v>
       </c>
       <c r="I15" s="7">
-        <v>621782</v>
+        <v>351941</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4559,10 +4616,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1087</v>
+        <v>621</v>
       </c>
       <c r="N15" s="7">
-        <v>1171269</v>
+        <v>666176</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4588,13 +4645,13 @@
         <v>93679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -4603,13 +4660,13 @@
         <v>111864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>195</v>
@@ -4618,13 +4675,13 @@
         <v>205543</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4696,13 @@
         <v>81876</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -4654,13 +4711,13 @@
         <v>91203</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>162</v>
@@ -4669,13 +4726,13 @@
         <v>173079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4800,13 @@
         <v>120894</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -4758,13 +4815,13 @@
         <v>121484</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>232</v>
@@ -4773,13 +4830,13 @@
         <v>242378</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4851,13 @@
         <v>109441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
@@ -4809,13 +4866,13 @@
         <v>134001</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>234</v>
@@ -4824,13 +4881,13 @@
         <v>243442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4955,13 @@
         <v>251139</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>269</v>
@@ -4913,13 +4970,13 @@
         <v>288340</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>501</v>
@@ -4928,13 +4985,13 @@
         <v>539479</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +5006,13 @@
         <v>272686</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>284</v>
@@ -4964,13 +5021,13 @@
         <v>315317</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>541</v>
@@ -4979,13 +5036,13 @@
         <v>588003</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5110,13 @@
         <v>317290</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="H25" s="7">
         <v>364</v>
@@ -5068,13 +5125,13 @@
         <v>392282</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>661</v>
@@ -5083,13 +5140,13 @@
         <v>709572</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5161,13 @@
         <v>288406</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>282</v>
@@ -5119,13 +5176,13 @@
         <v>308896</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>542</v>
@@ -5134,13 +5191,13 @@
         <v>597302</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5265,13 @@
         <v>1423649</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="H28" s="7">
         <v>1583</v>
@@ -5223,13 +5280,13 @@
         <v>1702448</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="M28" s="7">
         <v>2918</v>
@@ -5238,13 +5295,13 @@
         <v>3126097</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5316,13 @@
         <v>1324573</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="H29" s="7">
         <v>1330</v>
@@ -5274,13 +5331,13 @@
         <v>1441133</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="M29" s="7">
         <v>2563</v>
@@ -5289,13 +5346,13 @@
         <v>2765706</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,7 +5432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7012607-39D5-460C-BA21-2D98E5ADD713}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B158E199-89CF-4F0B-9B55-4EE70A566F6E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5392,7 +5449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5499,13 +5556,13 @@
         <v>104795</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>122</v>
@@ -5514,13 +5571,13 @@
         <v>126928</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>217</v>
@@ -5529,13 +5586,13 @@
         <v>231723</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5607,13 @@
         <v>122532</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
@@ -5565,13 +5622,13 @@
         <v>123479</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>230</v>
@@ -5580,13 +5637,13 @@
         <v>246012</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5711,13 @@
         <v>75174</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -5669,13 +5726,13 @@
         <v>105184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>172</v>
@@ -5684,13 +5741,13 @@
         <v>180358</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5762,13 @@
         <v>308021</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -5720,13 +5777,13 @@
         <v>343143</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>606</v>
@@ -5735,13 +5792,13 @@
         <v>651164</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5866,13 @@
         <v>59083</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>81</v>
@@ -5824,13 +5881,13 @@
         <v>81362</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -5839,13 +5896,13 @@
         <v>140445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5917,13 @@
         <v>176874</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>183</v>
@@ -5875,13 +5932,13 @@
         <v>187493</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>369</v>
@@ -5890,13 +5947,13 @@
         <v>364367</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +6021,13 @@
         <v>110237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>150</v>
@@ -5979,13 +6036,13 @@
         <v>160419</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>254</v>
@@ -5994,13 +6051,13 @@
         <v>270656</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6072,13 @@
         <v>161610</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>164</v>
@@ -6030,13 +6087,13 @@
         <v>180238</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>323</v>
@@ -6045,13 +6102,13 @@
         <v>341848</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6176,13 @@
         <v>102860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>122</v>
@@ -6134,13 +6191,13 @@
         <v>120085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>225</v>
@@ -6149,13 +6206,13 @@
         <v>222945</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6227,13 @@
         <v>69789</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>67</v>
@@ -6185,13 +6242,13 @@
         <v>66140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>138</v>
@@ -6200,13 +6257,13 @@
         <v>135929</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6331,13 @@
         <v>81940</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>87</v>
@@ -6289,13 +6346,13 @@
         <v>93762</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>169</v>
@@ -6304,13 +6361,13 @@
         <v>175702</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6382,13 @@
         <v>111913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="H20" s="7">
         <v>113</v>
@@ -6340,13 +6397,13 @@
         <v>116961</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>226</v>
@@ -6355,13 +6412,13 @@
         <v>228874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6486,13 @@
         <v>158514</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -6444,13 +6501,13 @@
         <v>246564</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="M22" s="7">
         <v>372</v>
@@ -6459,13 +6516,13 @@
         <v>405078</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6537,13 @@
         <v>279552</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="H23" s="7">
         <v>284</v>
@@ -6495,13 +6552,13 @@
         <v>307506</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="M23" s="7">
         <v>531</v>
@@ -6510,13 +6567,13 @@
         <v>587058</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,28 +6641,28 @@
         <v>347516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="H25" s="7">
         <v>415</v>
       </c>
       <c r="I25" s="7">
-        <v>452514</v>
+        <v>452515</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="M25" s="7">
         <v>748</v>
@@ -6614,13 +6671,13 @@
         <v>800031</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6692,13 @@
         <v>228583</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="H26" s="7">
         <v>213</v>
@@ -6650,13 +6707,13 @@
         <v>241344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="M26" s="7">
         <v>437</v>
@@ -6665,13 +6722,13 @@
         <v>469927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,7 +6755,7 @@
         <v>628</v>
       </c>
       <c r="I27" s="7">
-        <v>693858</v>
+        <v>693859</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6739,13 +6796,13 @@
         <v>1040119</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="H28" s="7">
         <v>1306</v>
@@ -6754,13 +6811,13 @@
         <v>1386818</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="M28" s="7">
         <v>2302</v>
@@ -6769,13 +6826,13 @@
         <v>2426937</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6847,13 @@
         <v>1458874</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="H29" s="7">
         <v>1455</v>
@@ -6805,13 +6862,13 @@
         <v>1566305</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="M29" s="7">
         <v>2860</v>
@@ -6820,13 +6877,13 @@
         <v>3025179</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,7 +6963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C72A1D6-0D1E-4BA0-8509-9B6DB3E006BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7920D85-FC5E-4DEA-B1D4-206181D4AF79}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6923,7 +6980,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7027,46 +7084,46 @@
         <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>22308</v>
+        <v>24929</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
       </c>
       <c r="I4" s="7">
-        <v>30007</v>
+        <v>30907</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="M4" s="7">
         <v>92</v>
       </c>
       <c r="N4" s="7">
-        <v>52315</v>
+        <v>55837</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,46 +7135,46 @@
         <v>236</v>
       </c>
       <c r="D5" s="7">
-        <v>187038</v>
+        <v>226458</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
       </c>
       <c r="I5" s="7">
-        <v>205767</v>
+        <v>220213</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="M5" s="7">
         <v>638</v>
       </c>
       <c r="N5" s="7">
-        <v>392805</v>
+        <v>446670</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,7 +7186,7 @@
         <v>266</v>
       </c>
       <c r="D6" s="7">
-        <v>209346</v>
+        <v>251387</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7144,7 +7201,7 @@
         <v>464</v>
       </c>
       <c r="I6" s="7">
-        <v>235774</v>
+        <v>251120</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7159,7 +7216,7 @@
         <v>730</v>
       </c>
       <c r="N6" s="7">
-        <v>445120</v>
+        <v>502507</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7182,46 +7239,46 @@
         <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>72759</v>
+        <v>69683</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="H7" s="7">
         <v>164</v>
       </c>
       <c r="I7" s="7">
-        <v>122518</v>
+        <v>112490</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="M7" s="7">
         <v>227</v>
       </c>
       <c r="N7" s="7">
-        <v>195276</v>
+        <v>182173</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>53</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,46 +7290,46 @@
         <v>213</v>
       </c>
       <c r="D8" s="7">
-        <v>271106</v>
+        <v>268609</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
       </c>
       <c r="I8" s="7">
-        <v>324444</v>
+        <v>302147</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="M8" s="7">
         <v>647</v>
       </c>
       <c r="N8" s="7">
-        <v>595551</v>
+        <v>570755</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>61</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,7 +7341,7 @@
         <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>343865</v>
+        <v>338292</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7299,7 +7356,7 @@
         <v>598</v>
       </c>
       <c r="I9" s="7">
-        <v>446962</v>
+        <v>414637</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7314,7 +7371,7 @@
         <v>874</v>
       </c>
       <c r="N9" s="7">
-        <v>790827</v>
+        <v>752928</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7337,46 +7394,46 @@
         <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>45050</v>
+        <v>43404</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
       </c>
       <c r="I10" s="7">
-        <v>66274</v>
+        <v>61323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
       </c>
       <c r="N10" s="7">
-        <v>111324</v>
+        <v>104727</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,46 +7445,46 @@
         <v>220</v>
       </c>
       <c r="D11" s="7">
-        <v>187878</v>
+        <v>183627</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="H11" s="7">
         <v>335</v>
       </c>
       <c r="I11" s="7">
-        <v>219118</v>
+        <v>205334</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>555</v>
       </c>
       <c r="N11" s="7">
-        <v>406996</v>
+        <v>388962</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,7 +7496,7 @@
         <v>278</v>
       </c>
       <c r="D12" s="7">
-        <v>232928</v>
+        <v>227031</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7454,7 +7511,7 @@
         <v>435</v>
       </c>
       <c r="I12" s="7">
-        <v>285392</v>
+        <v>266657</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7469,7 +7526,7 @@
         <v>713</v>
       </c>
       <c r="N12" s="7">
-        <v>518320</v>
+        <v>493689</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7492,46 +7549,46 @@
         <v>58</v>
       </c>
       <c r="D13" s="7">
-        <v>62260</v>
+        <v>58802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>542</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
       </c>
       <c r="I13" s="7">
-        <v>82332</v>
+        <v>76294</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>532</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
       </c>
       <c r="N13" s="7">
-        <v>144592</v>
+        <v>135096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>536</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7543,46 +7600,46 @@
         <v>169</v>
       </c>
       <c r="D14" s="7">
-        <v>160236</v>
+        <v>151949</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>549</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
       </c>
       <c r="I14" s="7">
-        <v>254624</v>
+        <v>314633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>541</v>
+        <v>118</v>
       </c>
       <c r="M14" s="7">
         <v>537</v>
       </c>
       <c r="N14" s="7">
-        <v>414860</v>
+        <v>466582</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>543</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7594,7 +7651,7 @@
         <v>227</v>
       </c>
       <c r="D15" s="7">
-        <v>222496</v>
+        <v>210751</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7609,7 +7666,7 @@
         <v>499</v>
       </c>
       <c r="I15" s="7">
-        <v>336956</v>
+        <v>390927</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7624,7 +7681,7 @@
         <v>726</v>
       </c>
       <c r="N15" s="7">
-        <v>559452</v>
+        <v>601678</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7647,46 +7704,46 @@
         <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>24704</v>
+        <v>22383</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
       </c>
       <c r="I16" s="7">
-        <v>34618</v>
+        <v>31034</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
       </c>
       <c r="N16" s="7">
-        <v>59323</v>
+        <v>53417</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>126</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,46 +7755,46 @@
         <v>126</v>
       </c>
       <c r="D17" s="7">
-        <v>81303</v>
+        <v>74044</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="H17" s="7">
         <v>269</v>
       </c>
       <c r="I17" s="7">
-        <v>146462</v>
+        <v>157803</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="M17" s="7">
         <v>395</v>
       </c>
       <c r="N17" s="7">
-        <v>227765</v>
+        <v>231847</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>572</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,7 +7806,7 @@
         <v>162</v>
       </c>
       <c r="D18" s="7">
-        <v>106007</v>
+        <v>96427</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7764,7 +7821,7 @@
         <v>348</v>
       </c>
       <c r="I18" s="7">
-        <v>181080</v>
+        <v>188837</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7779,7 +7836,7 @@
         <v>510</v>
       </c>
       <c r="N18" s="7">
-        <v>287088</v>
+        <v>285264</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7802,46 +7859,46 @@
         <v>90</v>
       </c>
       <c r="D19" s="7">
-        <v>59473</v>
+        <v>57830</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>562</v>
+        <v>162</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="H19" s="7">
         <v>141</v>
       </c>
       <c r="I19" s="7">
-        <v>75965</v>
+        <v>70800</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>577</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="M19" s="7">
         <v>231</v>
       </c>
       <c r="N19" s="7">
-        <v>135437</v>
+        <v>128630</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,46 +7910,46 @@
         <v>211</v>
       </c>
       <c r="D20" s="7">
-        <v>151004</v>
+        <v>145774</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>571</v>
+        <v>170</v>
       </c>
       <c r="H20" s="7">
         <v>246</v>
       </c>
       <c r="I20" s="7">
-        <v>146845</v>
+        <v>137074</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>26</v>
+        <v>586</v>
       </c>
       <c r="M20" s="7">
         <v>457</v>
       </c>
       <c r="N20" s="7">
-        <v>297850</v>
+        <v>282848</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7904,7 +7961,7 @@
         <v>301</v>
       </c>
       <c r="D21" s="7">
-        <v>210477</v>
+        <v>203604</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7919,7 +7976,7 @@
         <v>387</v>
       </c>
       <c r="I21" s="7">
-        <v>222810</v>
+        <v>207874</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7934,7 +7991,7 @@
         <v>688</v>
       </c>
       <c r="N21" s="7">
-        <v>433287</v>
+        <v>411478</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7957,46 +8014,46 @@
         <v>53</v>
       </c>
       <c r="D22" s="7">
-        <v>49705</v>
+        <v>48547</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="H22" s="7">
         <v>111</v>
       </c>
       <c r="I22" s="7">
-        <v>178650</v>
+        <v>266994</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="M22" s="7">
         <v>164</v>
       </c>
       <c r="N22" s="7">
-        <v>228355</v>
+        <v>315542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,46 +8065,46 @@
         <v>378</v>
       </c>
       <c r="D23" s="7">
-        <v>371294</v>
+        <v>363460</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="H23" s="7">
         <v>629</v>
       </c>
       <c r="I23" s="7">
-        <v>438077</v>
+        <v>407696</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="M23" s="7">
         <v>1007</v>
       </c>
       <c r="N23" s="7">
-        <v>809371</v>
+        <v>771155</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,7 +8116,7 @@
         <v>431</v>
       </c>
       <c r="D24" s="7">
-        <v>420999</v>
+        <v>412007</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8074,7 +8131,7 @@
         <v>740</v>
       </c>
       <c r="I24" s="7">
-        <v>616727</v>
+        <v>674690</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8089,7 +8146,7 @@
         <v>1171</v>
       </c>
       <c r="N24" s="7">
-        <v>1037726</v>
+        <v>1086697</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8112,46 +8169,46 @@
         <v>191</v>
       </c>
       <c r="D25" s="7">
-        <v>201029</v>
+        <v>170592</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>464</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>405</v>
+        <v>608</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="H25" s="7">
         <v>378</v>
       </c>
       <c r="I25" s="7">
-        <v>308490</v>
+        <v>255117</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="M25" s="7">
         <v>569</v>
       </c>
       <c r="N25" s="7">
-        <v>509519</v>
+        <v>425709</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>602</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,46 +8220,46 @@
         <v>330</v>
       </c>
       <c r="D26" s="7">
-        <v>303716</v>
+        <v>259297</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>603</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>415</v>
+        <v>616</v>
       </c>
       <c r="H26" s="7">
         <v>462</v>
       </c>
       <c r="I26" s="7">
-        <v>338336</v>
+        <v>283852</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="M26" s="7">
         <v>792</v>
       </c>
       <c r="N26" s="7">
-        <v>642052</v>
+        <v>543149</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>609</v>
+        <v>485</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,7 +8271,7 @@
         <v>521</v>
       </c>
       <c r="D27" s="7">
-        <v>504745</v>
+        <v>429889</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8229,7 +8286,7 @@
         <v>840</v>
       </c>
       <c r="I27" s="7">
-        <v>646826</v>
+        <v>538969</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8244,7 +8301,7 @@
         <v>1361</v>
       </c>
       <c r="N27" s="7">
-        <v>1151571</v>
+        <v>968858</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8267,46 +8324,46 @@
         <v>579</v>
       </c>
       <c r="D28" s="7">
-        <v>537288</v>
+        <v>496170</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>534</v>
+        <v>624</v>
       </c>
       <c r="H28" s="7">
         <v>1166</v>
       </c>
       <c r="I28" s="7">
-        <v>898854</v>
+        <v>904961</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="M28" s="7">
         <v>1745</v>
       </c>
       <c r="N28" s="7">
-        <v>1436142</v>
+        <v>1401131</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8318,46 +8375,46 @@
         <v>1883</v>
       </c>
       <c r="D29" s="7">
-        <v>1713576</v>
+        <v>1673217</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>542</v>
+        <v>632</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="H29" s="7">
         <v>3145</v>
       </c>
       <c r="I29" s="7">
-        <v>2073673</v>
+        <v>2028751</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="M29" s="7">
         <v>5028</v>
       </c>
       <c r="N29" s="7">
-        <v>3787249</v>
+        <v>3701968</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8369,7 +8426,7 @@
         <v>2462</v>
       </c>
       <c r="D30" s="7">
-        <v>2250864</v>
+        <v>2169387</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8384,7 +8441,7 @@
         <v>4311</v>
       </c>
       <c r="I30" s="7">
-        <v>2972527</v>
+        <v>2933712</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8399,7 +8456,7 @@
         <v>6773</v>
       </c>
       <c r="N30" s="7">
-        <v>5223391</v>
+        <v>5103099</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
